--- a/test.xlsx
+++ b/test.xlsx
@@ -163,13 +163,13 @@
         <v>20000.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
@@ -189,7 +189,7 @@
         <v>20000.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>0.0</v>
@@ -215,13 +215,13 @@
         <v>20000.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
@@ -293,13 +293,13 @@
         <v>20000.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
@@ -325,7 +325,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
@@ -345,13 +345,13 @@
         <v>20000.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>0.0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Bùi Thị Lan</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -160,22 +163,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>20000.0</v>
+        <v>2398.8462</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1500.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2000.0</v>
+        <v>3898.8462</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3000.0</v>
+        <v>2198.8462</v>
       </c>
     </row>
     <row r="3">
@@ -186,22 +189,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>20000.0</v>
+        <v>2398.8462</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1500.0</v>
+        <v>4398.846</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>3000.0</v>
+        <v>3898.8462</v>
       </c>
     </row>
     <row r="4">
@@ -212,22 +215,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>20000.0</v>
+        <v>2398.8462</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1500.0</v>
+        <v>2398.8462</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>3000.0</v>
+        <v>2398.8462</v>
       </c>
     </row>
     <row r="5">
@@ -238,22 +241,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>20000.0</v>
+        <v>2429.9998</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>2000.0</v>
+        <v>3929.9998</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>3000.0</v>
+        <v>4430.0</v>
       </c>
     </row>
     <row r="6">
@@ -264,7 +267,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>20000.0</v>
+        <v>2429.9998</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2000.0</v>
@@ -273,13 +276,13 @@
         <v>0.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>1500.0</v>
+        <v>2429.9998</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>3000.0</v>
+        <v>2429.9998</v>
       </c>
     </row>
     <row r="7">
@@ -290,22 +293,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>20000.0</v>
+        <v>4159.0386</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>0.0</v>
+        <v>5659.0386</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>3000.0</v>
+        <v>5659.0386</v>
       </c>
     </row>
     <row r="8">
@@ -316,7 +319,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>20000.0</v>
+        <v>4159.0386</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>2000.0</v>
@@ -325,13 +328,13 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>2000.0</v>
+        <v>6159.0386</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>3000.0</v>
+        <v>5659.0386</v>
       </c>
     </row>
     <row r="9">
@@ -342,22 +345,48 @@
         <v>15</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>20000.0</v>
+        <v>4159.0386</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>0.0</v>
+        <v>6159.0386</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>3000.0</v>
+        <v>6159.0386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>2429.9998</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>1500.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>4430.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>2429.9998</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Bùi Thị Lan</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -160,22 +163,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>20000.0</v>
+        <v>1308461.5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2000.0</v>
+        <v>1310461.5</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3000.0</v>
+        <v>1308261.5</v>
       </c>
     </row>
     <row r="3">
@@ -186,22 +189,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>20000.0</v>
+        <v>1308461.5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>2000.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1500.0</v>
+        <v>1309961.5</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>3000.0</v>
+        <v>1308261.5</v>
       </c>
     </row>
     <row r="4">
@@ -212,22 +215,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>20000.0</v>
+        <v>1308461.5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1500.0</v>
+        <v>1310461.5</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>3000.0</v>
+        <v>1309961.5</v>
       </c>
     </row>
     <row r="5">
@@ -238,7 +241,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>20000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -247,13 +250,13 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>2000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>3000.0</v>
+        <v>1620000.0</v>
       </c>
     </row>
     <row r="6">
@@ -264,22 +267,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>20000.0</v>
+        <v>1620000.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>1500.0</v>
+        <v>1622000.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>3000.0</v>
+        <v>1620000.0</v>
       </c>
     </row>
     <row r="7">
@@ -290,7 +293,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>20000.0</v>
+        <v>2033307.8</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -299,13 +302,13 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>0.0</v>
+        <v>2034807.8</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>3000.0</v>
+        <v>2033307.8</v>
       </c>
     </row>
     <row r="8">
@@ -316,7 +319,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>20000.0</v>
+        <v>2033307.8</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>2000.0</v>
@@ -325,13 +328,13 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>2000.0</v>
+        <v>2033307.8</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>3000.0</v>
+        <v>2033307.8</v>
       </c>
     </row>
     <row r="9">
@@ -342,22 +345,48 @@
         <v>15</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>20000.0</v>
+        <v>2033307.8</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>0.0</v>
+        <v>2033307.8</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>3000.0</v>
+        <v>2034807.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>1620000.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>1620000.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>1622000.0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Nguyen van</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -163,22 +166,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>1308461.5</v>
+        <v>1453846.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>200.0</v>
+        <v>400000.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1310461.5</v>
+        <v>2953846.0</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>1308261.5</v>
+        <v>2553846.0</v>
       </c>
     </row>
     <row r="3">
@@ -189,22 +192,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1308461.5</v>
+        <v>1453846.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>200.0</v>
+        <v>800000.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1309961.5</v>
+        <v>2953846.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1308261.5</v>
+        <v>2153846.0</v>
       </c>
     </row>
     <row r="4">
@@ -215,22 +218,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>1308461.5</v>
+        <v>1453846.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>0.0</v>
+        <v>400000.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1310461.5</v>
+        <v>1453846.0</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>1309961.5</v>
+        <v>1053846.0</v>
       </c>
     </row>
     <row r="5">
@@ -241,7 +244,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -250,13 +253,13 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
     </row>
     <row r="6">
@@ -267,22 +270,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>1622000.0</v>
+        <v>3300000.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>1620000.0</v>
+        <v>3300000.0</v>
       </c>
     </row>
     <row r="7">
@@ -293,22 +296,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2259231.0</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>2034807.8</v>
+        <v>2259231.0</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2059231.0</v>
       </c>
     </row>
     <row r="8">
@@ -319,22 +322,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2259231.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>2033307.8</v>
+        <v>4259231.0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>2033307.8</v>
+        <v>4259231.0</v>
       </c>
     </row>
     <row r="9">
@@ -345,7 +348,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2259231.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -354,13 +357,13 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2259231.0</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>2034807.8</v>
+        <v>2259231.0</v>
       </c>
     </row>
     <row r="10">
@@ -371,22 +374,48 @@
         <v>16</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>1620000.0</v>
+        <v>3300000.0</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>1622000.0</v>
+        <v>3300000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>1453846.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>1453846.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>1453846.0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -169,19 +169,19 @@
         <v>1453846.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>400000.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>2953846.0</v>
+        <v>1453846.0</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>2553846.0</v>
+        <v>1053846.0</v>
       </c>
     </row>
     <row r="3">
@@ -195,19 +195,19 @@
         <v>1453846.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>800000.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>2953846.0</v>
+        <v>1453846.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>2153846.0</v>
+        <v>653846.0</v>
       </c>
     </row>
     <row r="4">
@@ -247,19 +247,19 @@
         <v>1800000.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1800000.0</v>
+        <v>3300000.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>1800000.0</v>
+        <v>3300000.0</v>
       </c>
     </row>
     <row r="6">
@@ -273,19 +273,19 @@
         <v>1800000.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>1500000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>3300000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>3300000.0</v>
+        <v>3800000.0</v>
       </c>
     </row>
     <row r="7">
@@ -299,19 +299,19 @@
         <v>2259231.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>200000.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>2259231.0</v>
+        <v>3759231.0</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>2059231.0</v>
+        <v>3559231.0</v>
       </c>
     </row>
     <row r="8">
@@ -325,19 +325,19 @@
         <v>2259231.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2000000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>4259231.0</v>
+        <v>2259231.0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>4259231.0</v>
+        <v>2259231.0</v>
       </c>
     </row>
     <row r="9">
@@ -351,19 +351,19 @@
         <v>2259231.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>2259231.0</v>
+        <v>4259231.0</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>2259231.0</v>
+        <v>4259231.0</v>
       </c>
     </row>
     <row r="10">
@@ -377,19 +377,19 @@
         <v>1800000.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>1500000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>3300000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>3300000.0</v>
+        <v>1800000.0</v>
       </c>
     </row>
     <row r="11">

--- a/test.xlsx
+++ b/test.xlsx
@@ -41,7 +41,7 @@
     <t>Nguyễn Văn An</t>
   </si>
   <si>
-    <t>Trần Thị Bình</t>
+    <t>Nguyễn Thiện Ngôn</t>
   </si>
   <si>
     <t>Lê Văn Cường</t>
@@ -62,7 +62,7 @@
     <t>Bùi Thị Lan</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Toàn thái</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.64453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.1015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.4921875" customWidth="true" bestFit="true"/>
@@ -163,22 +163,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>1308461.5</v>
+        <v>769230.75</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>200.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1310461.5</v>
+        <v>770730.75</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>1308261.5</v>
+        <v>769030.75</v>
       </c>
     </row>
     <row r="3">
@@ -189,22 +189,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1308461.5</v>
+        <v>2769230.5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1309961.5</v>
+        <v>2771230.5</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1308261.5</v>
+        <v>2770730.5</v>
       </c>
     </row>
     <row r="4">
@@ -215,7 +215,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>1308461.5</v>
+        <v>1453846.1</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -224,13 +224,13 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1310461.5</v>
+        <v>1453846.1</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>1309961.5</v>
+        <v>1455846.1</v>
       </c>
     </row>
     <row r="5">
@@ -241,22 +241,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
     </row>
     <row r="6">
@@ -267,22 +267,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>1622000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1801500.0</v>
       </c>
     </row>
     <row r="7">
@@ -293,22 +293,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2259230.8</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>2034807.8</v>
+        <v>2260730.8</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2261230.8</v>
       </c>
     </row>
     <row r="8">
@@ -319,7 +319,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>2033307.8</v>
+        <v>1800000.0</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>2000.0</v>
@@ -328,13 +328,13 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>2033307.8</v>
+        <v>1801500.0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>2033307.8</v>
+        <v>1802000.0</v>
       </c>
     </row>
     <row r="9">
@@ -345,22 +345,22 @@
         <v>15</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2259230.8</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>2033307.8</v>
+        <v>2261230.8</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>2034807.8</v>
+        <v>2259230.8</v>
       </c>
     </row>
     <row r="10">
@@ -371,22 +371,22 @@
         <v>16</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1453846.1</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>1620000.0</v>
+        <v>1455846.1</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>1622000.0</v>
+        <v>1455846.1</v>
       </c>
     </row>
   </sheetData>
